--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4264113521607581</v>
+        <v>0.5216437782290682</v>
       </c>
       <c r="D2">
-        <v>0.6698627935172752</v>
+        <v>0.6071307011250271</v>
       </c>
       <c r="E2">
         <v>0.7187809064981263</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.004201288709229924</v>
+        <v>0.003599592078948115</v>
       </c>
       <c r="D3">
-        <v>0.9966483655599339</v>
+        <v>0.9971603886778233</v>
       </c>
       <c r="E3">
         <v>0.7187809064981263</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.858834543999891</v>
+        <v>0.8504632829603186</v>
       </c>
       <c r="D4">
-        <v>0.3905543985831086</v>
+        <v>0.4042289819424913</v>
       </c>
       <c r="E4">
         <v>0.7187809064981263</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.359800615716153</v>
+        <v>4.230116814967821</v>
       </c>
       <c r="D5">
-        <v>0.0007974602097804429</v>
+        <v>0.0003439395751421159</v>
       </c>
       <c r="E5">
         <v>0.7187809064981263</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.3600826320627873</v>
+        <v>-0.2881821710824145</v>
       </c>
       <c r="D6">
-        <v>0.7188306289820812</v>
+        <v>0.775904859031268</v>
       </c>
       <c r="E6">
         <v>0.7068302594446301</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4312017643419943</v>
+        <v>0.5057823489978439</v>
       </c>
       <c r="D7">
-        <v>0.6663770262797404</v>
+        <v>0.6180398756601588</v>
       </c>
       <c r="E7">
         <v>0.7068302594446301</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.136955798954399</v>
+        <v>3.411135144805184</v>
       </c>
       <c r="D8">
-        <v>0.001736743911482819</v>
+        <v>0.002503861860086998</v>
       </c>
       <c r="E8">
         <v>0.7068302594446301</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.7828760961434256</v>
+        <v>0.7653533978657637</v>
       </c>
       <c r="D9">
-        <v>0.4338102802890691</v>
+        <v>0.4521942631633329</v>
       </c>
       <c r="E9">
         <v>0.7186357961406149</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.498689266291014</v>
+        <v>1.759987207046143</v>
       </c>
       <c r="D10">
-        <v>0.01256027804162851</v>
+        <v>0.09230901304066408</v>
       </c>
       <c r="E10">
         <v>0.7186357961406149</v>
@@ -661,7 +661,7 @@
         <v>0.6395681098603154</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.225790260927342</v>
+        <v>2.083164072096575</v>
       </c>
       <c r="D11">
-        <v>0.02616056182824722</v>
+        <v>0.04906760228396001</v>
       </c>
       <c r="E11">
         <v>0.6952477709011892</v>
